--- a/奇布茲/每週妥拉/每週妥拉.xlsx
+++ b/奇布茲/每週妥拉/每週妥拉.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>創1-5.jpg</t>
   </si>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When he let go (Beshalach)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jethro (Yitro)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,6 +427,158 @@
   </si>
   <si>
     <t>And he lived 他住在 (Vayechi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When he let go 他容百姓去的時候 (Beshalach)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://youtu.be/6dU5NbI2S-E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出13-22.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And He called (Vaylkra)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command (Tsav)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eighth (Shmini)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She conceives (Tazria)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leper (Metzora)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy ones (Kedoshim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the death (Acharei Mot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Say (Emor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the mountain (BeHar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In my statutes (Bechukotai)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 1:1-6:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 6:8-8:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 9:1-11:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 12:1-13:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 14:1-15:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 16:1-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 19:1-20:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 21:1-24:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 25:1-26:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利未記 26:3-27:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ויקרא</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>צו</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>שמיני</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מצרע</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>אחרי מות</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>קדשים</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>אמר</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>בהר</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>בחקתי</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>משפטים</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>תרומה</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>תצוה</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>כי תשא</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ויקהל</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>פקודי</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -560,12 +708,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -593,6 +752,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -900,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -909,7 +1069,7 @@
     <col min="1" max="1" width="4.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.375" style="7" customWidth="1"/>
@@ -941,7 +1101,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>71</v>
@@ -964,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>68</v>
@@ -984,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>69</v>
@@ -1004,7 +1164,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>70</v>
@@ -1024,7 +1184,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>73</v>
@@ -1044,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>72</v>
@@ -1064,7 +1224,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>74</v>
@@ -1084,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>75</v>
@@ -1104,7 +1264,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>76</v>
@@ -1124,7 +1284,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>77</v>
@@ -1144,7 +1304,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>78</v>
@@ -1164,7 +1324,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>79</v>
@@ -1221,13 +1381,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>82</v>
@@ -1240,25 +1400,32 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>56</v>
@@ -1269,7 +1436,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>57</v>
@@ -1280,7 +1450,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>58</v>
@@ -1291,7 +1464,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>59</v>
@@ -1302,7 +1478,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>60</v>
@@ -1313,7 +1492,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>61</v>
@@ -1324,7 +1506,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>62</v>
@@ -1336,9 +1521,15 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="G25" s="4" t="s">
         <v>65</v>
       </c>
@@ -1349,9 +1540,15 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
@@ -1359,9 +1556,15 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -1369,9 +1572,13 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="13" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -1379,9 +1586,15 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
@@ -1389,9 +1602,15 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
@@ -1399,9 +1618,15 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
@@ -1409,9 +1634,15 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
@@ -1419,9 +1650,15 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
@@ -1429,9 +1666,15 @@
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
@@ -1637,9 +1880,11 @@
     <hyperlink ref="G45" r:id="rId33"/>
     <hyperlink ref="B16" r:id="rId34"/>
     <hyperlink ref="C16" r:id="rId35"/>
+    <hyperlink ref="C17" r:id="rId36"/>
+    <hyperlink ref="B17" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/奇布茲/每週妥拉/每週妥拉.xlsx
+++ b/奇布茲/每週妥拉/每週妥拉.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>創1-5.jpg</t>
   </si>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jethro (Yitro)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Judgements (Mishpatim)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,6 +575,18 @@
   </si>
   <si>
     <t>פקודי</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jethro 葉忒羅 (Yitro)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://youtu.be/vQ_0j4IyMuI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出19-6.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>71</v>
@@ -1124,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>68</v>
@@ -1144,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>69</v>
@@ -1164,7 +1172,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>70</v>
@@ -1184,7 +1192,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>73</v>
@@ -1204,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>72</v>
@@ -1224,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>74</v>
@@ -1244,7 +1252,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>75</v>
@@ -1264,7 +1272,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>76</v>
@@ -1284,7 +1292,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>77</v>
@@ -1304,7 +1312,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>78</v>
@@ -1324,7 +1332,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>79</v>
@@ -1381,13 +1389,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>82</v>
@@ -1401,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>55</v>
@@ -1421,11 +1429,17 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>56</v>
@@ -1436,10 +1450,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>57</v>
@@ -1450,10 +1464,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>58</v>
@@ -1464,10 +1478,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>59</v>
@@ -1478,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>60</v>
@@ -1492,10 +1506,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>61</v>
@@ -1506,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>62</v>
@@ -1522,13 +1536,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>65</v>
@@ -1541,13 +1555,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,13 +1571,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1573,11 +1587,11 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1587,13 +1601,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1603,13 +1617,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1619,13 +1633,13 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1635,13 +1649,13 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1651,13 +1665,13 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1667,13 +1681,13 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1882,9 +1896,11 @@
     <hyperlink ref="C16" r:id="rId35"/>
     <hyperlink ref="C17" r:id="rId36"/>
     <hyperlink ref="B17" r:id="rId37"/>
+    <hyperlink ref="C18" r:id="rId38"/>
+    <hyperlink ref="B18" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/奇布茲/每週妥拉/每週妥拉.xlsx
+++ b/奇布茲/每週妥拉/每週妥拉.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>創1-5.jpg</t>
   </si>
@@ -334,30 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Judgements (Mishpatim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contribution (Terumah)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You shall command (Tetzaveh)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you take (Ki Tisa)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>And he assembled (Vayakhel)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accountings of (Pekudei)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>בשלח</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>And He called (Vaylkra)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Command (Tsav)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,13 +560,344 @@
   <si>
     <t>出19-6.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judgements 典章 (Mishpatim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出22-28.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://youtu.be/10MKCrue1Zg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contribution 禮物 (Terumah)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出25-8.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://youtu.be/1tzyg_Z_Dwk</t>
+  </si>
+  <si>
+    <t>You shall command 你要吩咐 (Tetsaveh)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出28-2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://youtu.be/LMRQDR9tRlg</t>
+  </si>
+  <si>
+    <t>民數記 1:1-4:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民數記 4:21-7:89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民數記 8:1-12:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民數記 13:1-15:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民數記 16:1-18:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民數記 19:1-22:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民數記 22:2-25:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民數記 25:10-29:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民數記 30:1-32:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民數記 33:1-36:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the desert (Bamidbar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take! (Naso)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you set up (Beha'alotekha)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send fro yourself! (Shelach Lekha)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korah (Korach)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decree of (Chukat)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balak (Balak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phinehas (Pinchas)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribes (Mattot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journeys of (Masei)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>במדבר</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>נשא</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>בהעלתך</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>שלח לך</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>קרת</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>חקת</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>בלק</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>פינחס</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מטות</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מסעי</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 1:1-3:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 3:23-7:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 7:12-11:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 11:26-16:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 16:18-21:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 21:10-25:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 26:1-29:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 29:10-30:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 31:1-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 32:1-52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申命記 33:1-34:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Words (Devarim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And I pleaded (Vaetchanan)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consequently (Eikev)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See! (Re'eh)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judges (Shoftim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you go out (Ki Teitzei)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you go int (Ki Tavo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing (Nitzavim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And he went (Vayelech)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give ear! (Ha'azinu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And this blessing (Vzot Haberakhah)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>דברים</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ואתחנן</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>עקב</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ראה</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>שפטים</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>כי תצא</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>כי תבוא</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>נצבים</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>וילך</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>האזינו</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>וזאת הברכה</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you take 你要按 (Ki Tisa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出33-18.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://youtu.be/ijqb_4jZOsw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And he assembled 他招聚 (Vayakhel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出35-3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://youtu.be/7p5Dy1G68z4</t>
+  </si>
+  <si>
+    <t>Accountings of 這是…總數 (Pekudei)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出39-32.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://youtu.be/gg_8x1mFK8A</t>
+  </si>
+  <si>
+    <t>And He called 他呼叫 (Vayikra)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利1-17.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://youtu.be/sC6RqoFF84Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -678,6 +981,13 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -755,12 +1065,12 @@
     <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1068,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -1109,9 +1419,9 @@
         <v>47</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -1132,9 +1442,9 @@
         <v>10</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -1152,9 +1462,9 @@
         <v>11</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -1172,9 +1482,9 @@
         <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -1192,9 +1502,9 @@
         <v>30</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -1212,9 +1522,9 @@
         <v>13</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -1232,9 +1542,9 @@
         <v>12</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -1252,9 +1562,9 @@
         <v>21</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -1272,9 +1582,9 @@
         <v>23</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -1292,9 +1602,9 @@
         <v>25</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -1312,9 +1622,9 @@
         <v>32</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>78</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -1332,9 +1642,9 @@
         <v>41</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>79</v>
       </c>
       <c r="F13" s="13" t="s">
@@ -1354,7 +1664,7 @@
       <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1377,7 +1687,7 @@
       <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1389,15 +1699,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1409,37 +1719,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>89</v>
+        <v>100</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>56</v>
@@ -1449,11 +1759,17 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>57</v>
@@ -1463,11 +1779,17 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>58</v>
@@ -1477,11 +1799,17 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>59</v>
@@ -1491,11 +1819,17 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>141</v>
+        <v>212</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>60</v>
@@ -1505,11 +1839,17 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>142</v>
+        <v>215</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>61</v>
@@ -1519,11 +1859,17 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>143</v>
+        <v>218</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>62</v>
@@ -1533,16 +1879,20 @@
       <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="D25" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>129</v>
+        <v>221</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>65</v>
@@ -1555,13 +1905,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1571,13 +1921,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>131</v>
+        <v>104</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1587,11 +1937,11 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="E28" s="20"/>
       <c r="F28" s="13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1601,13 +1951,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1617,13 +1967,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1633,13 +1983,13 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1649,13 +1999,13 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>135</v>
+        <v>109</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1665,13 +2015,13 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>136</v>
+        <v>110</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1681,19 +2031,28 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>137</v>
+        <v>111</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="G35" s="4" t="s">
         <v>66</v>
       </c>
@@ -1702,46 +2061,127 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
@@ -1749,9 +2189,15 @@
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>179</v>
+      </c>
       <c r="G45" s="4" t="s">
         <v>67</v>
       </c>
@@ -1762,9 +2208,15 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="13"/>
+      <c r="D46" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
@@ -1772,9 +2224,15 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
@@ -1782,9 +2240,15 @@
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
@@ -1792,9 +2256,15 @@
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
@@ -1802,9 +2272,15 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
@@ -1812,9 +2288,15 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
@@ -1822,9 +2304,15 @@
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
@@ -1832,9 +2320,15 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
@@ -1842,9 +2336,15 @@
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
@@ -1852,9 +2352,15 @@
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1898,9 +2404,23 @@
     <hyperlink ref="B17" r:id="rId37"/>
     <hyperlink ref="C18" r:id="rId38"/>
     <hyperlink ref="B18" r:id="rId39"/>
+    <hyperlink ref="B19" r:id="rId40"/>
+    <hyperlink ref="C19" r:id="rId41"/>
+    <hyperlink ref="B20" r:id="rId42"/>
+    <hyperlink ref="C20" r:id="rId43"/>
+    <hyperlink ref="B21" r:id="rId44"/>
+    <hyperlink ref="C21" r:id="rId45"/>
+    <hyperlink ref="B22" r:id="rId46"/>
+    <hyperlink ref="C22" r:id="rId47"/>
+    <hyperlink ref="C23" r:id="rId48"/>
+    <hyperlink ref="B23" r:id="rId49"/>
+    <hyperlink ref="B24" r:id="rId50"/>
+    <hyperlink ref="C24" r:id="rId51" display="http://l.facebook.com/l.php?u=http%3A%2F%2Fyoutu.be%2Fgg_8x1mFK8A&amp;h=fAQFnlmex&amp;enc=AZMukfipanodcQlI0kdoHmz04MF3WhYVxN6dURoDS9xUUxDEFzGC5vz8TDHEQmtqJOEkmWSr9V2IexdQtI2gs6IO-rpxLt52g9pnzSi9oJpAN3yqEOEBOatyfvNQK77SDdZog7tifLX2gWYA_Mse17CA&amp;s=1&amp;skip_shim_verification=1"/>
+    <hyperlink ref="B25" r:id="rId52"/>
+    <hyperlink ref="C25" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId54"/>
 </worksheet>
 </file>
 
